--- a/design/Config/Common/Mail.xlsx
+++ b/design/Config/Common/Mail.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GideaPF\gamepf_doc\Config\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\工作目录\doc\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="0" windowWidth="21615" windowHeight="8265"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <author>zf</author>
   </authors>
   <commentList>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0" shapeId="0">
+    <comment ref="G7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0" shapeId="0">
+    <comment ref="G8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H8" authorId="0" shapeId="0">
+    <comment ref="G9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H9" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H10" authorId="0" shapeId="0">
+    <comment ref="G11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0" shapeId="0">
+    <comment ref="G12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="0" shapeId="0">
+    <comment ref="G13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +130,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="85">
   <si>
     <t>int</t>
   </si>
@@ -192,9 +192,6 @@
     <t>开服公告</t>
   </si>
   <si>
-    <t>&lt;font size='12'&gt;6月27日活动公告：&lt;/font&gt;\n  &lt;font color="#FF0000"&gt;一.超级偶像&lt;/font&gt;\n    玩家可从主界面超级偶像入口进入该活动，对自己心仪的偶像投票!</t>
-  </si>
-  <si>
     <t>合作邀请失败</t>
   </si>
   <si>
@@ -277,15 +274,6 @@
     <t>A right partner is valuable both in business and dance! Congrats to you~</t>
   </si>
   <si>
-    <t>zh_tw_content</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>zh_tw_title</t>
-  </si>
-  <si>
     <t>删除已装订订单</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -408,6 +396,26 @@
   </si>
   <si>
     <t>Weekly Point Rewards</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>4001&amp;10;4002&amp;10;4003&amp;10</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>6101&amp;1;6102&amp;1;6103&amp;1;6104&amp;1;6105&amp;1;6106&amp;1;6107&amp;1;6108&amp;1;6109&amp;1;6201&amp;1;6202&amp;1</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>2&amp;10000</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>1&amp;5</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月27日活动公告：一.超级偶像:玩家可从主界面超级偶像入口进入该活动，对自己心仪的偶像投票!</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -464,25 +472,25 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -799,11 +807,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -812,13 +820,12 @@
     <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="81.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -835,22 +842,16 @@
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -867,22 +868,16 @@
         <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -896,377 +891,406 @@
         <v>12</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>30001001</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>720</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>30001002</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>30001003</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>72</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>30001004</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1">
         <v>720</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>30001005</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1">
-        <v>72</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1">
-        <v>720</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="3" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>30001006</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1">
-        <v>720</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C10" s="1">
         <v>720</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>30001007</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1">
         <v>720</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>30001008</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1">
         <v>720</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>30001009</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1">
         <v>720</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>30001010</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1">
         <v>720</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H14" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>30001011</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1">
         <v>720</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>30001012</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="1">
+        <v>720</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>30001013</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="1">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>13</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="H17" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>30001014</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="1">
+        <v>720</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="1">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="1">
-        <v>720</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
